--- a/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2630</v>
+        <v>2581</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13077</v>
+        <v>13016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02307530188233649</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009635050694919418</v>
+        <v>0.009455090978698412</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04789979946114065</v>
+        <v>0.04767589547430776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4111</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10266</v>
+        <v>10748</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01576100825523259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004090244747591789</v>
+        <v>0.004055535705490262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03935889896571772</v>
+        <v>0.04120498974932624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4845</v>
+        <v>5134</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18851</v>
+        <v>18358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01950153879510045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00907534861306937</v>
+        <v>0.009617764040510918</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03531073392858126</v>
+        <v>0.03438897302615725</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>266710</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259933</v>
+        <v>259994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270380</v>
+        <v>270429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9769246981176635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9521002005388592</v>
+        <v>0.9523241045256923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9903649493050806</v>
+        <v>0.9905449090213015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -836,19 +836,19 @@
         <v>256727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250572</v>
+        <v>250090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259771</v>
+        <v>259780</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9842389917447674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9606411010342822</v>
+        <v>0.9587950102506736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9959097552524082</v>
+        <v>0.9959444642945097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>506</v>
@@ -857,19 +857,19 @@
         <v>523437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>514997</v>
+        <v>515490</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529003</v>
+        <v>528714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9804984612048996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9646892660714189</v>
+        <v>0.9656110269738434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9909246513869306</v>
+        <v>0.9903822359594898</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>10873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5031</v>
+        <v>5554</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19641</v>
+        <v>20129</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02205107359466135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01020315989661493</v>
+        <v>0.01126301617666397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03983434297414055</v>
+        <v>0.04082333991324587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -982,19 +982,19 @@
         <v>31583</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21315</v>
+        <v>22238</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43383</v>
+        <v>43974</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06267062275474583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04229640105878247</v>
+        <v>0.04412793388303271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08608567824947548</v>
+        <v>0.08725805710442215</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1003,19 +1003,19 @@
         <v>42456</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30876</v>
+        <v>30584</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57940</v>
+        <v>56470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04258235482147509</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03096854317130158</v>
+        <v>0.03067494895032133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05811248182041906</v>
+        <v>0.05663831795751297</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>482202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473434</v>
+        <v>472946</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>488044</v>
+        <v>487521</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9779489264053386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9601656570258594</v>
+        <v>0.9591766600867542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9897968401033851</v>
+        <v>0.9887369838233362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>468</v>
@@ -1053,19 +1053,19 @@
         <v>472366</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>460566</v>
+        <v>459975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>482634</v>
+        <v>481711</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9373293772452542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.913914321750524</v>
+        <v>0.9127419428955779</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9577035989412171</v>
+        <v>0.9558720661169674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>923</v>
@@ -1074,19 +1074,19 @@
         <v>954568</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>939084</v>
+        <v>940554</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>966148</v>
+        <v>966440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9574176451785249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9418875181795814</v>
+        <v>0.943361682042487</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690314568286984</v>
+        <v>0.9693250510496788</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8891</v>
+        <v>10716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007986045368455359</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02788378727162734</v>
+        <v>0.03360798959649069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>8733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4685</v>
+        <v>4577</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16278</v>
+        <v>15486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02603700921501688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01396852050333146</v>
+        <v>0.01364730242276909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04853027858021353</v>
+        <v>0.04617156584863871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1220,19 +1220,19 @@
         <v>11279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5976</v>
+        <v>5755</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20181</v>
+        <v>20046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01724005635715545</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00913395035747403</v>
+        <v>0.008796466841208623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03084623735811204</v>
+        <v>0.03063915327850816</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>316300</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309955</v>
+        <v>308130</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9920139546315446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9721162127283726</v>
+        <v>0.9663920104035093</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>326679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>319134</v>
+        <v>319926</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330727</v>
+        <v>330835</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9739629907849832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9514697214197851</v>
+        <v>0.9538284341513614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9860314794966685</v>
+        <v>0.9863526975772313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>634</v>
@@ -1291,19 +1291,19 @@
         <v>642979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>634077</v>
+        <v>634212</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648282</v>
+        <v>648503</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9827599436428446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9691537626418883</v>
+        <v>0.9693608467214918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.990866049642526</v>
+        <v>0.9912035331587914</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9303</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4517</v>
+        <v>4366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18486</v>
+        <v>18725</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02593867168232849</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01259434307771365</v>
+        <v>0.01217317116764042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05154028125843863</v>
+        <v>0.05220759888756887</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>13096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7161</v>
+        <v>7098</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21353</v>
+        <v>22231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03525458819370499</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01927686759243048</v>
+        <v>0.01910863357148763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05748503365770435</v>
+        <v>0.05984842145510701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>22399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14909</v>
+        <v>14286</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34071</v>
+        <v>33696</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0306781928790694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02041996599977096</v>
+        <v>0.01956628571675301</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04666389085796839</v>
+        <v>0.04615110013334534</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340185</v>
+        <v>339946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354154</v>
+        <v>354305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9740613283176716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9484597187415618</v>
+        <v>0.9477924011124312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9874056569222864</v>
+        <v>0.9878268288323596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -1487,19 +1487,19 @@
         <v>358360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350103</v>
+        <v>349225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364295</v>
+        <v>364358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.964745411806295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9425149663422956</v>
+        <v>0.9401515785448935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9807231324075695</v>
+        <v>0.9808913664285124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1508,19 +1508,19 @@
         <v>707728</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696056</v>
+        <v>696431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715218</v>
+        <v>715841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9693218071209306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9533361091420317</v>
+        <v>0.9538488998666547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9795800340002291</v>
+        <v>0.9804337142832471</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>6753</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2899</v>
+        <v>2821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13309</v>
+        <v>13398</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03321559425204802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.014261241968009</v>
+        <v>0.01387510995054828</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06546442423636703</v>
+        <v>0.06590190446409051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1633,19 +1633,19 @@
         <v>17628</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10423</v>
+        <v>10467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28712</v>
+        <v>27563</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08488481315806838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05018986088795398</v>
+        <v>0.05040447790468232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1382591860844933</v>
+        <v>0.1327245283021481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1654,19 +1654,19 @@
         <v>24381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16048</v>
+        <v>15728</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36816</v>
+        <v>35452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05932427736452443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03904841393316692</v>
+        <v>0.03827089084932075</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08958211198655444</v>
+        <v>0.08626174127455769</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>196555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189999</v>
+        <v>189910</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200409</v>
+        <v>200487</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.966784405747952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9345355757636341</v>
+        <v>0.9340980955359095</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.985738758031991</v>
+        <v>0.9861248900494518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -1704,19 +1704,19 @@
         <v>190040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178956</v>
+        <v>180105</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197245</v>
+        <v>197201</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9151151868419316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8617408139155062</v>
+        <v>0.867275471697852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.949810139112046</v>
+        <v>0.9495955220953183</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>382</v>
@@ -1725,19 +1725,19 @@
         <v>386595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374160</v>
+        <v>375524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394928</v>
+        <v>395248</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9406757226354756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9104178880134457</v>
+        <v>0.9137382587254423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9609515860668331</v>
+        <v>0.9617291091506792</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4698</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11116</v>
+        <v>11248</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01734628522446184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003811163918829077</v>
+        <v>0.003775073626186157</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04104807204590927</v>
+        <v>0.04153365512296711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>9567</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5003</v>
+        <v>4891</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18368</v>
+        <v>17290</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03439739389409734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01798655344548683</v>
+        <v>0.01758610458288164</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06603826210423672</v>
+        <v>0.06216030864925943</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1871,19 +1871,19 @@
         <v>14265</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8459</v>
+        <v>7954</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23139</v>
+        <v>24673</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02598572476917996</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0154098672459058</v>
+        <v>0.01448879219212754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04215128077361167</v>
+        <v>0.0449450916644864</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>266113</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259695</v>
+        <v>259563</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269779</v>
+        <v>269789</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9826537147755382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9589519279540907</v>
+        <v>0.9584663448770327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9961888360811709</v>
+        <v>0.9962249263738139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -1921,19 +1921,19 @@
         <v>268577</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259776</v>
+        <v>260854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273141</v>
+        <v>273253</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9656026061059026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9339617378957636</v>
+        <v>0.93783969135074</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9820134465545132</v>
+        <v>0.9824138954171183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -1942,19 +1942,19 @@
         <v>534690</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525816</v>
+        <v>524282</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>540496</v>
+        <v>541001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9740142752308201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9578487192263884</v>
+        <v>0.9550549083355134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9845901327540942</v>
+        <v>0.9855112078078724</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>9453</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4162</v>
+        <v>4310</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17692</v>
+        <v>18392</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01536972415121399</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006766896855815817</v>
+        <v>0.007007869985740118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02876622395392139</v>
+        <v>0.02990410079209073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2067,19 +2067,19 @@
         <v>18402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11328</v>
+        <v>11367</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29653</v>
+        <v>28959</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02883346516027826</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.017749099470255</v>
+        <v>0.01781107097589873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04646238937520818</v>
+        <v>0.04537451739942214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2088,19 +2088,19 @@
         <v>27855</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19021</v>
+        <v>18820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40738</v>
+        <v>41263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02222617176782674</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01517740531636328</v>
+        <v>0.01501694296060804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03250585100324158</v>
+        <v>0.03292496868397027</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>605574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>597335</v>
+        <v>596635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>610865</v>
+        <v>610717</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.984630275848786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9712337760460785</v>
+        <v>0.9700958992079092</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9932331031441841</v>
+        <v>0.9929921300142599</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>603</v>
@@ -2138,19 +2138,19 @@
         <v>619817</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>608566</v>
+        <v>609260</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>626891</v>
+        <v>626852</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9711665348397217</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9535376106247919</v>
+        <v>0.9546254826005781</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9822509005297453</v>
+        <v>0.9821889290241014</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1192</v>
@@ -2159,19 +2159,19 @@
         <v>1225391</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1212508</v>
+        <v>1211983</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1234225</v>
+        <v>1234426</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9777738282321733</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9674941489967585</v>
+        <v>0.9670750313160297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.984822594683637</v>
+        <v>0.984983057039392</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>28287</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19248</v>
+        <v>18880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41062</v>
+        <v>40044</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03808282118680821</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02591325944415231</v>
+        <v>0.02541827230607344</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05528197507528019</v>
+        <v>0.05391126120619262</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2284,19 +2284,19 @@
         <v>29157</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19934</v>
+        <v>20107</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40962</v>
+        <v>42438</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03721282279659871</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02544248389179559</v>
+        <v>0.02566323094298738</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05228037016590405</v>
+        <v>0.05416401003203759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2305,19 +2305,19 @@
         <v>57444</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44275</v>
+        <v>44218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73816</v>
+        <v>74782</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03763621257444588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02900828045585786</v>
+        <v>0.02897119623926194</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04836297104126006</v>
+        <v>0.04899607467456114</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>714490</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>701715</v>
+        <v>702733</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>723529</v>
+        <v>723897</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9619171788131918</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9447180249247199</v>
+        <v>0.9460887387938077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9740867405558477</v>
+        <v>0.9745817276939267</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>716</v>
@@ -2355,19 +2355,19 @@
         <v>754354</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>742549</v>
+        <v>741073</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>763577</v>
+        <v>763404</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9627871772034012</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9477196298340955</v>
+        <v>0.9458359899679625</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9745575161082043</v>
+        <v>0.9743367690570127</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1423</v>
@@ -2376,19 +2376,19 @@
         <v>1468844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1452472</v>
+        <v>1451506</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1482013</v>
+        <v>1482070</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9623637874255541</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9516370289587398</v>
+        <v>0.9510039253254394</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9709917195441421</v>
+        <v>0.9710288037607381</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>78213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02387793940796142</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>128</v>
@@ -2501,19 +2501,19 @@
         <v>132277</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0391443658550934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>202</v>
@@ -2522,19 +2522,19 @@
         <v>210489</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03163006843644426</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3197312</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3174490</v>
+        <v>3174712</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3212473</v>
+        <v>3213108</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9761220605920385</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9691546833984983</v>
+        <v>0.9692224331663674</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9807504360174885</v>
+        <v>0.9809445794181533</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3169</v>
@@ -2572,19 +2572,19 @@
         <v>3246920</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3221982</v>
+        <v>3223780</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3268224</v>
+        <v>3268143</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9608556341449066</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9534755472131013</v>
+        <v>0.9540077509036172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.967160056354909</v>
+        <v>0.9671359893632057</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6308</v>
@@ -2593,19 +2593,19 @@
         <v>6444233</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6413691</v>
+        <v>6411865</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6471523</v>
+        <v>6472471</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9683699315635558</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9637805010258395</v>
+        <v>0.9635060988440276</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9724708676175008</v>
+        <v>0.972613335051924</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>11032</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5393</v>
+        <v>5510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20260</v>
+        <v>19153</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03801491795177839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01858308316548175</v>
+        <v>0.01898804581109562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06981271422538946</v>
+        <v>0.06599740219316218</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2962,19 +2962,19 @@
         <v>19344</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11571</v>
+        <v>12233</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28600</v>
+        <v>30259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06900011828814548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04127433144564523</v>
+        <v>0.04363427584455658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1020193846688818</v>
+        <v>0.1079356870948902</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2983,19 +2983,19 @@
         <v>30376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21278</v>
+        <v>21343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42461</v>
+        <v>42849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0532397687076568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03729491926573301</v>
+        <v>0.03740753003535003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07442245109748975</v>
+        <v>0.07510136568976108</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>279171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269943</v>
+        <v>271050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284810</v>
+        <v>284693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9619850820482216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9301872857746121</v>
+        <v>0.9340025978068381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9814169168345186</v>
+        <v>0.9810119541889046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -3033,19 +3033,19 @@
         <v>260999</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251743</v>
+        <v>250084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268772</v>
+        <v>268110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9309998817118545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8979806153311179</v>
+        <v>0.8920643129051098</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9587256685543547</v>
+        <v>0.9563657241554434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>500</v>
@@ -3054,19 +3054,19 @@
         <v>540170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>528085</v>
+        <v>527697</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>549268</v>
+        <v>549203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9467602312923432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9255775489025101</v>
+        <v>0.9248986343102389</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9627050807342667</v>
+        <v>0.96259246996465</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>32351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20966</v>
+        <v>21720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47619</v>
+        <v>48326</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06399422294847558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04147307540324659</v>
+        <v>0.04296458277437522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09419592169941328</v>
+        <v>0.09559500143548193</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3179,19 +3179,19 @@
         <v>37869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26967</v>
+        <v>26799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50419</v>
+        <v>52082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0724449698438504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05158936079946032</v>
+        <v>0.05126773434483137</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09645350345743289</v>
+        <v>0.09963425789353167</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -3200,19 +3200,19 @@
         <v>70220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54593</v>
+        <v>52667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93118</v>
+        <v>88466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06829029003617298</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05309271746584741</v>
+        <v>0.05121946492284533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09055915596547558</v>
+        <v>0.08603486190052198</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>473176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>457908</v>
+        <v>457201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>484561</v>
+        <v>483807</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9360057770515244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9058040783005867</v>
+        <v>0.9044049985645181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9585269245967535</v>
+        <v>0.9570354172256247</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -3250,19 +3250,19 @@
         <v>484862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472312</v>
+        <v>470649</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>495764</v>
+        <v>495932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9275550301561496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9035464965425667</v>
+        <v>0.9003657421064685</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9484106392005396</v>
+        <v>0.9487322656551687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>891</v>
@@ -3271,19 +3271,19 @@
         <v>958038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>935140</v>
+        <v>939792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973665</v>
+        <v>975591</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9317097099638271</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9094408440345241</v>
+        <v>0.913965138099478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9469072825341526</v>
+        <v>0.9487805350771545</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>6822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2873</v>
+        <v>2907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14232</v>
+        <v>13690</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02111224578616472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008890084959236561</v>
+        <v>0.008998265725908968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04404582324847023</v>
+        <v>0.04236753667314075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3396,19 +3396,19 @@
         <v>24363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16196</v>
+        <v>16041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35089</v>
+        <v>35595</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07144011961460858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04749425305951627</v>
+        <v>0.04703717665611721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1028940551296382</v>
+        <v>0.1043794583342298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -3417,19 +3417,19 @@
         <v>31184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22268</v>
+        <v>22159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43908</v>
+        <v>43473</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04695455641378286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03352904168772264</v>
+        <v>0.03336540047014751</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06611256582060621</v>
+        <v>0.06545743276120501</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>316294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308884</v>
+        <v>309426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320243</v>
+        <v>320209</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9788877542138352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9559541767515282</v>
+        <v>0.9576324633268591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911099150407634</v>
+        <v>0.991001734274091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>294</v>
@@ -3467,19 +3467,19 @@
         <v>316657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>305931</v>
+        <v>305425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>324824</v>
+        <v>324979</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9285598803853914</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8971059448703619</v>
+        <v>0.89562054166577</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.952505746940484</v>
+        <v>0.9529628233438827</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>605</v>
@@ -3488,19 +3488,19 @@
         <v>632952</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620228</v>
+        <v>620663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641868</v>
+        <v>641977</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9530454435862171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.933887434179394</v>
+        <v>0.934542567238795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9664709583122775</v>
+        <v>0.9666345995298526</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>7352</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3086</v>
+        <v>3199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15416</v>
+        <v>14822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01965943953117901</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008252556455798211</v>
+        <v>0.008553519831415552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04122084584010354</v>
+        <v>0.03963414183925874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3613,19 +3613,19 @@
         <v>15860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9341</v>
+        <v>9221</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24846</v>
+        <v>24374</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04087925727378013</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02407697604243728</v>
+        <v>0.02376684233846223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06404063544807093</v>
+        <v>0.0628241764587489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -3634,19 +3634,19 @@
         <v>23212</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15041</v>
+        <v>15369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34505</v>
+        <v>33958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03046418241222826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01974004043531799</v>
+        <v>0.0201702356372611</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04528437335549069</v>
+        <v>0.04456696808726414</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>366630</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358566</v>
+        <v>359160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370896</v>
+        <v>370783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.980340560468821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9587791541598965</v>
+        <v>0.9603658581607413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9917474435442019</v>
+        <v>0.9914464801685845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -3684,19 +3684,19 @@
         <v>372114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>363128</v>
+        <v>363600</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>378633</v>
+        <v>378753</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9591207427262198</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9359593645519291</v>
+        <v>0.9371758235412515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9759230239575628</v>
+        <v>0.9762331576615378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>691</v>
@@ -3705,19 +3705,19 @@
         <v>738744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>727451</v>
+        <v>727998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746915</v>
+        <v>746587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9695358175877717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9547156266445094</v>
+        <v>0.9554330319127359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9802599595646819</v>
+        <v>0.9798297643627388</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>8981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4036</v>
+        <v>3998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15880</v>
+        <v>16224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04224218045773515</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01898014103029393</v>
+        <v>0.01880214308330978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07468813798528903</v>
+        <v>0.07630767892031044</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3830,19 +3830,19 @@
         <v>21086</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13412</v>
+        <v>13443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31021</v>
+        <v>30580</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0960241325199173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06107689819023858</v>
+        <v>0.06121977632603365</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.141266620289632</v>
+        <v>0.1392588768118423</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3851,19 +3851,19 @@
         <v>30067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21578</v>
+        <v>20694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42030</v>
+        <v>42378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06956699683042773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04992532159377827</v>
+        <v>0.04787981223174381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09724513575315999</v>
+        <v>0.09805069427283432</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>203637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196738</v>
+        <v>196394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208582</v>
+        <v>208620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9577578195422649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9253118620147114</v>
+        <v>0.9236923210796896</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9810198589697061</v>
+        <v>0.9811978569166903</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -3901,19 +3901,19 @@
         <v>198505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188570</v>
+        <v>189011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206179</v>
+        <v>206148</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9039758674800827</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8587333797103681</v>
+        <v>0.8607411231881574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9389231018097614</v>
+        <v>0.9387802236739663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -3922,19 +3922,19 @@
         <v>402142</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390179</v>
+        <v>389831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>410631</v>
+        <v>411515</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9304330031695722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9027548642468398</v>
+        <v>0.9019493057271656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9500746784062217</v>
+        <v>0.9521201877682558</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>10130</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4683</v>
+        <v>4973</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18332</v>
+        <v>18832</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03697476037721624</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01709111483885353</v>
+        <v>0.01814999736821384</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06690976911738492</v>
+        <v>0.06873508290730408</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -4047,19 +4047,19 @@
         <v>14225</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7579</v>
+        <v>8172</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23872</v>
+        <v>24967</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05115975578976064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02725579352493534</v>
+        <v>0.02938928411287937</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0858542897505834</v>
+        <v>0.08979119176501181</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -4068,19 +4068,19 @@
         <v>24356</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15617</v>
+        <v>15474</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35202</v>
+        <v>35943</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0441195759910785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02828925987714395</v>
+        <v>0.02803135890790292</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06376702326714634</v>
+        <v>0.06511062184785509</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>263851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255649</v>
+        <v>255149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269298</v>
+        <v>269008</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9630252396227837</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9330902308826146</v>
+        <v>0.9312649170926954</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9829088851611453</v>
+        <v>0.9818500026317861</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -4118,19 +4118,19 @@
         <v>263828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254181</v>
+        <v>253086</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270474</v>
+        <v>269881</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9488402442102394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9141457102494166</v>
+        <v>0.9102088082349882</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9727442064750647</v>
+        <v>0.9706107158871207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>506</v>
@@ -4139,19 +4139,19 @@
         <v>527678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>516832</v>
+        <v>516091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>536417</v>
+        <v>536560</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9558804240089215</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9362329767328537</v>
+        <v>0.9348893781521449</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9717107401228561</v>
+        <v>0.9719686410920971</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>10288</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4883</v>
+        <v>5181</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18287</v>
+        <v>17737</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01552168533656754</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007367932567599439</v>
+        <v>0.007817459257090729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0275906105055448</v>
+        <v>0.02676153586763337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4264,19 +4264,19 @@
         <v>28292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18581</v>
+        <v>18948</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40573</v>
+        <v>40800</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04077501599411942</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02677885232661762</v>
+        <v>0.02730780673905406</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0584747247916599</v>
+        <v>0.05880176476346056</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -4285,19 +4285,19 @@
         <v>38579</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27419</v>
+        <v>27599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53618</v>
+        <v>55017</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02843748131249992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02021129284601001</v>
+        <v>0.02034337789645465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03952270145353017</v>
+        <v>0.04055400041038533</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>652500</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>644501</v>
+        <v>645051</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657905</v>
+        <v>657607</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9844783146634325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9724093894944551</v>
+        <v>0.9732384641323665</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9926320674324005</v>
+        <v>0.9921825407429092</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>611</v>
@@ -4335,19 +4335,19 @@
         <v>665561</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>653280</v>
+        <v>653053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>675272</v>
+        <v>674905</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9592249840058806</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9415252752083401</v>
+        <v>0.9411982352365394</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9732211476733824</v>
+        <v>0.9726921932609459</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1219</v>
@@ -4356,19 +4356,19 @@
         <v>1318062</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1303023</v>
+        <v>1301624</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1329222</v>
+        <v>1329042</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9715625186875001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9604772985464699</v>
+        <v>0.9594459995896146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9797887071539906</v>
+        <v>0.9796566221035449</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>29653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19426</v>
+        <v>19010</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42163</v>
+        <v>42130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03816515167576589</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02500258769351851</v>
+        <v>0.02446728711420307</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05426562451056741</v>
+        <v>0.05422327991262356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -4484,16 +4484,16 @@
         <v>24251</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45972</v>
+        <v>46960</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04159029721428084</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02951991528598129</v>
+        <v>0.02952011106941841</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05595993886369741</v>
+        <v>0.05716286744704229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -4502,19 +4502,19 @@
         <v>63821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49057</v>
+        <v>50508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80350</v>
+        <v>82998</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03992545235496472</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03068953915833251</v>
+        <v>0.03159727229142706</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0502663487270554</v>
+        <v>0.05192271365063259</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>747319</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>734809</v>
+        <v>734842</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>757546</v>
+        <v>757962</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9618348483242342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9457343754894326</v>
+        <v>0.9457767200873766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9749974123064821</v>
+        <v>0.975532712885797</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>722</v>
@@ -4552,7 +4552,7 @@
         <v>787353</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>775548</v>
+        <v>774560</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>797269</v>
@@ -4561,10 +4561,10 @@
         <v>0.9584097027857191</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9440400611363031</v>
+        <v>0.9428371325529576</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9704800847140191</v>
+        <v>0.9704798889305816</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1410</v>
@@ -4573,19 +4573,19 @@
         <v>1534671</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1518142</v>
+        <v>1515494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1549435</v>
+        <v>1547984</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9600745476450353</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9497336512729447</v>
+        <v>0.9480772863493674</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9693104608416676</v>
+        <v>0.9684027277085731</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>116610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96209</v>
+        <v>95114</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>140937</v>
+        <v>141384</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03410445433262534</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02813799329757886</v>
+        <v>0.02781777421199067</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04121948373553914</v>
+        <v>0.0413500679282507</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>183</v>
@@ -4698,19 +4698,19 @@
         <v>195206</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>168052</v>
+        <v>168360</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>223315</v>
+        <v>224635</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05506378664379125</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04740421220118578</v>
+        <v>0.04749112643941718</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06299285560891164</v>
+        <v>0.06336522428992422</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>288</v>
@@ -4719,19 +4719,19 @@
         <v>311815</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>279549</v>
+        <v>279676</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>354919</v>
+        <v>352319</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04477356819643205</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04014037183572045</v>
+        <v>0.04015868134700201</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.050962837181286</v>
+        <v>0.05058949736521117</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3302578</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3278251</v>
+        <v>3277804</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3322979</v>
+        <v>3324074</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9658955456673747</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9587805162644606</v>
+        <v>0.958649932071749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9718620067024211</v>
+        <v>0.9721822257880093</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3103</v>
@@ -4769,19 +4769,19 @@
         <v>3349880</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3321771</v>
+        <v>3320451</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3377034</v>
+        <v>3376726</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9449362133562087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9370071443910881</v>
+        <v>0.9366347757100758</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9525957877988139</v>
+        <v>0.9525088735605829</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6200</v>
@@ -4790,19 +4790,19 @@
         <v>6652459</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6609355</v>
+        <v>6611955</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6684725</v>
+        <v>6684598</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9552264318035679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9490371628187135</v>
+        <v>0.9494105026347889</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9598596281642795</v>
+        <v>0.959841318652998</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>11292</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5941</v>
+        <v>6036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19762</v>
+        <v>19688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03844036621268156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02022381348638103</v>
+        <v>0.02054648402726434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06727148970267972</v>
+        <v>0.06702092620620893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5159,19 +5159,19 @@
         <v>13016</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7226</v>
+        <v>6825</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22280</v>
+        <v>22111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04508544667335462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02502781630122177</v>
+        <v>0.02363963727953649</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07717113489779276</v>
+        <v>0.07658608916923039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -5180,19 +5180,19 @@
         <v>24309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15363</v>
+        <v>14720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36600</v>
+        <v>34697</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0417340541676817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02637591085600296</v>
+        <v>0.02527275751413123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06283592825409311</v>
+        <v>0.05957009134708343</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>282469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273999</v>
+        <v>274073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287820</v>
+        <v>287725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9615596337873185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9327285102973203</v>
+        <v>0.9329790737937912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9797761865136191</v>
+        <v>0.9794535159727358</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>265</v>
@@ -5230,19 +5230,19 @@
         <v>275687</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266423</v>
+        <v>266592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281477</v>
+        <v>281878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9549145533266453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9228288651022072</v>
+        <v>0.9234139108307693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.974972183698778</v>
+        <v>0.9763603627204633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>520</v>
@@ -5251,19 +5251,19 @@
         <v>558155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>545864</v>
+        <v>547767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>567101</v>
+        <v>567744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9582659458323183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9371640717459073</v>
+        <v>0.9404299086529156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9736240891439971</v>
+        <v>0.9747272424858685</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>14265</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8860</v>
+        <v>7998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24640</v>
+        <v>24005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02838387554184015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01762858336357056</v>
+        <v>0.01591462762643328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04902740092211809</v>
+        <v>0.04776304313576598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -5376,19 +5376,19 @@
         <v>36267</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25643</v>
+        <v>25741</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49104</v>
+        <v>49495</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06933242369134941</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0490222220241924</v>
+        <v>0.04921061841375179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09387445796876463</v>
+        <v>0.09462149743150196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -5397,19 +5397,19 @@
         <v>50532</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36850</v>
+        <v>37763</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65437</v>
+        <v>65016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04926754429524969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03592804011818582</v>
+        <v>0.03681858425070275</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06380025355039601</v>
+        <v>0.06338928646248562</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>488310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477935</v>
+        <v>478570</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493715</v>
+        <v>494577</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9716161244581598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.950972599077883</v>
+        <v>0.9522369568642345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9823714166364299</v>
+        <v>0.9840853723735667</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -5447,19 +5447,19 @@
         <v>486817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473980</v>
+        <v>473589</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497441</v>
+        <v>497343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9306675763086506</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9061255420312354</v>
+        <v>0.9053785025684981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9509777779758076</v>
+        <v>0.9507893815862482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>910</v>
@@ -5468,19 +5468,19 @@
         <v>975127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>960222</v>
+        <v>960643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>988809</v>
+        <v>987896</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9507324557047503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.936199746449604</v>
+        <v>0.9366107135375143</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9640719598818142</v>
+        <v>0.9631814157492973</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>9038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3999</v>
+        <v>4361</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16611</v>
+        <v>17012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02837003491262897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01255187689501616</v>
+        <v>0.01368798246234249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05214296926099024</v>
+        <v>0.05340117791151835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5593,19 +5593,19 @@
         <v>10246</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5409</v>
+        <v>5380</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17277</v>
+        <v>17516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03046481971217342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01608313494182519</v>
+        <v>0.01599789083105313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0513726417998715</v>
+        <v>0.05208335660323463</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -5614,19 +5614,19 @@
         <v>19283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11821</v>
+        <v>12430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28729</v>
+        <v>29743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02944580671875251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01805019941101159</v>
+        <v>0.01898071051061953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04387007524197071</v>
+        <v>0.0454186143543414</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>309527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301954</v>
+        <v>301553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314566</v>
+        <v>314204</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.971629965087371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9478570307390093</v>
+        <v>0.9465988220884816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9874481231049835</v>
+        <v>0.9863120175376575</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -5664,19 +5664,19 @@
         <v>326063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>319032</v>
+        <v>318793</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330900</v>
+        <v>330929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9695351802878266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9486273582001286</v>
+        <v>0.9479166433967653</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9839168650581749</v>
+        <v>0.9840021091689469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>647</v>
@@ -5685,19 +5685,19 @@
         <v>635591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626145</v>
+        <v>625131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643053</v>
+        <v>642444</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9705541932812475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9561299247580293</v>
+        <v>0.9545813856456589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9819498005889884</v>
+        <v>0.9810192894893806</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>15657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8762</v>
+        <v>8949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25905</v>
+        <v>26108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04232123333307576</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02368241676631532</v>
+        <v>0.02418793583752466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07002157806717574</v>
+        <v>0.07056992523184323</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -5810,19 +5810,19 @@
         <v>25386</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17431</v>
+        <v>17049</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38700</v>
+        <v>36829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06555018564008212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04500845812450849</v>
+        <v>0.04402126655531812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09992784226277604</v>
+        <v>0.0950963087445707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -5831,19 +5831,19 @@
         <v>41044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28835</v>
+        <v>28565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56800</v>
+        <v>56496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05420134427118409</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03807862015689496</v>
+        <v>0.03772158460532974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07500834735205646</v>
+        <v>0.07460769639975796</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>354307</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344059</v>
+        <v>343856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361202</v>
+        <v>361015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9576787666669242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9299784219328237</v>
+        <v>0.9294300747681571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9763175832336846</v>
+        <v>0.9758120641624753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>336</v>
@@ -5881,19 +5881,19 @@
         <v>361897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348583</v>
+        <v>350454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369852</v>
+        <v>370234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9344498143599179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9000721577372239</v>
+        <v>0.9049036912554288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9549915418754915</v>
+        <v>0.9559787334446812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>676</v>
@@ -5902,19 +5902,19 @@
         <v>716203</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>700447</v>
+        <v>700751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>728412</v>
+        <v>728682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9457986557288159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9249916526479443</v>
+        <v>0.9253923036002422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9619213798431053</v>
+        <v>0.9622784153946703</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9874</v>
+        <v>9799</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02110315972501575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008014305491467099</v>
+        <v>0.008035471142037899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04674797059231814</v>
+        <v>0.04639441348107148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6027,19 +6027,19 @@
         <v>10139</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5218</v>
+        <v>5594</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17334</v>
+        <v>17244</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0463832106534432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02387360129398809</v>
+        <v>0.02559173758214294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07930030784789616</v>
+        <v>0.07888979147562886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -6048,19 +6048,19 @@
         <v>14596</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8306</v>
+        <v>8355</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22835</v>
+        <v>23427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03395980854187929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01932448394556423</v>
+        <v>0.01943862351104939</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05312874686963937</v>
+        <v>0.05450480263017393</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>206764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201347</v>
+        <v>201422</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209528</v>
+        <v>209524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9788968402749842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9532520294076823</v>
+        <v>0.9536055865189276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9919856945085329</v>
+        <v>0.991964528857962</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>212</v>
@@ -6098,19 +6098,19 @@
         <v>208448</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201253</v>
+        <v>201343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213369</v>
+        <v>212993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9536167893465568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9206996921521038</v>
+        <v>0.9211102085243708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9761263987060119</v>
+        <v>0.9744082624178568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>419</v>
@@ -6119,19 +6119,19 @@
         <v>415212</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>406973</v>
+        <v>406381</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421502</v>
+        <v>421453</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9660401914581207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9468712531303605</v>
+        <v>0.9454951973698258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9806755160544355</v>
+        <v>0.9805613764889505</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>9700</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4919</v>
+        <v>4878</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17817</v>
+        <v>17235</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03686522649568739</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01869646737713871</v>
+        <v>0.01853802145909249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06771523451899526</v>
+        <v>0.06550257371847572</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6244,19 +6244,19 @@
         <v>13669</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7482</v>
+        <v>7918</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23216</v>
+        <v>24178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05004811822530995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02739670413467244</v>
+        <v>0.02899041592856062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08500351334340082</v>
+        <v>0.08852511178634025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6265,19 +6265,19 @@
         <v>23369</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14725</v>
+        <v>14791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33633</v>
+        <v>34960</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04357949419594723</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02746066362817949</v>
+        <v>0.02758328908971935</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06271944145955602</v>
+        <v>0.06519429385479376</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>253423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245306</v>
+        <v>245888</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258204</v>
+        <v>258245</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9631347735043126</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9322847654810051</v>
+        <v>0.9344974262815244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9813035326228613</v>
+        <v>0.9814619785409076</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -6315,19 +6315,19 @@
         <v>259446</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249899</v>
+        <v>248937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265633</v>
+        <v>265197</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.94995188177469</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9149964866565992</v>
+        <v>0.911474888213659</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9726032958653275</v>
+        <v>0.9710095840714392</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -6336,19 +6336,19 @@
         <v>512869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502605</v>
+        <v>501278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521513</v>
+        <v>521447</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9564205058040528</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9372805585404443</v>
+        <v>0.9348057061452062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9725393363718206</v>
+        <v>0.9724167109102807</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>14761</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8165</v>
+        <v>7970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25662</v>
+        <v>25498</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02248258656038146</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01243544249924894</v>
+        <v>0.01213859104118709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03908620277512066</v>
+        <v>0.03883629270485531</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -6461,19 +6461,19 @@
         <v>39699</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28798</v>
+        <v>28543</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54403</v>
+        <v>54004</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0574265157601403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04165769804213519</v>
+        <v>0.04128934968176352</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07869760756199794</v>
+        <v>0.07812013930748873</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -6482,19 +6482,19 @@
         <v>54460</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40355</v>
+        <v>40399</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70280</v>
+        <v>71698</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04040482776542936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02994004392568644</v>
+        <v>0.02997291144373666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05214205511659833</v>
+        <v>0.05319393635995173</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>641797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>630896</v>
+        <v>631060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648393</v>
+        <v>648588</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9775174134396185</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9609137972248796</v>
+        <v>0.9611637072951448</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9875645575007512</v>
+        <v>0.987861408958813</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>611</v>
@@ -6532,19 +6532,19 @@
         <v>651595</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>636891</v>
+        <v>637290</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>662496</v>
+        <v>662751</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9425734842398596</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9213023924380023</v>
+        <v>0.9218798606925115</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.958342301957865</v>
+        <v>0.9587106503182365</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1179</v>
@@ -6553,19 +6553,19 @@
         <v>1293392</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1277572</v>
+        <v>1276154</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1307497</v>
+        <v>1307453</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9595951722345706</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9478579448834017</v>
+        <v>0.9468060636400483</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9700599560743136</v>
+        <v>0.9700270885562634</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>25065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17641</v>
+        <v>16826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36611</v>
+        <v>37219</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03219301389032004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0226579560453726</v>
+        <v>0.02161097594869429</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04702297052952883</v>
+        <v>0.04780364578625811</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -6678,19 +6678,19 @@
         <v>42041</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29176</v>
+        <v>30831</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56410</v>
+        <v>57064</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05088640286214832</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03531541618811879</v>
+        <v>0.03731808989043454</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06827899733266908</v>
+        <v>0.06907112646092053</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -6699,19 +6699,19 @@
         <v>67106</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51868</v>
+        <v>52179</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83506</v>
+        <v>85847</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04181685631787972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03232136016814892</v>
+        <v>0.032515442930118</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05203686518339962</v>
+        <v>0.05349582782466086</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>753518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>741972</v>
+        <v>741364</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>760942</v>
+        <v>761757</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.96780698610968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9529770294704709</v>
+        <v>0.952196354213741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9773420439546271</v>
+        <v>0.9783890240513053</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>716</v>
@@ -6749,19 +6749,19 @@
         <v>784126</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>769757</v>
+        <v>769103</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>796991</v>
+        <v>795336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9491135971378517</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9317210026673308</v>
+        <v>0.9309288735390797</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9646845838118812</v>
+        <v>0.9626819101095655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1441</v>
@@ -6770,19 +6770,19 @@
         <v>1537644</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1521244</v>
+        <v>1518903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1552882</v>
+        <v>1552571</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9581831436821203</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9479631348166003</v>
+        <v>0.9465041721753391</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.967678639831851</v>
+        <v>0.967484557069882</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>104236</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>84218</v>
+        <v>85089</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>125811</v>
+        <v>126754</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03070865222488643</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02481124538428898</v>
+        <v>0.02506791274463798</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03706484341042916</v>
+        <v>0.03734250786109318</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>177</v>
@@ -6895,19 +6895,19 @@
         <v>190462</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>162760</v>
+        <v>162354</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220566</v>
+        <v>218532</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05373387652741457</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04591847582898394</v>
+        <v>0.04580408396035201</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06222682901993164</v>
+        <v>0.0616530115384867</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>277</v>
@@ -6916,19 +6916,19 @@
         <v>294698</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>263764</v>
+        <v>263193</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>334724</v>
+        <v>329925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04247045375638014</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03801244302072264</v>
+        <v>0.03793017424983461</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04823877682643521</v>
+        <v>0.04754727723954714</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3290114</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3268539</v>
+        <v>3267596</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3310132</v>
+        <v>3309261</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9692913477751136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9629351565895712</v>
+        <v>0.9626574921389064</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9751887546157111</v>
+        <v>0.9749320872553621</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3161</v>
@@ -6966,19 +6966,19 @@
         <v>3354080</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3323976</v>
+        <v>3326010</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3381782</v>
+        <v>3382188</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9462661234725854</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9377731709800685</v>
+        <v>0.9383469884615133</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9540815241710161</v>
+        <v>0.954195916039648</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6292</v>
@@ -6987,19 +6987,19 @@
         <v>6644194</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6604168</v>
+        <v>6608967</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6675128</v>
+        <v>6675699</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9575295462436199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9517612231735644</v>
+        <v>0.952452722760453</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9619875569792768</v>
+        <v>0.9620698257501658</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>16540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9419</v>
+        <v>9060</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28711</v>
+        <v>29867</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05187464459421117</v>
+        <v>0.05187464459421118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02954215177186501</v>
+        <v>0.0284164560632109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09004562834221252</v>
+        <v>0.09367220007419938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -7356,19 +7356,19 @@
         <v>9213</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5048</v>
+        <v>4391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18714</v>
+        <v>18004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02914968126634462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01597093858845689</v>
+        <v>0.01389361916121223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05921078948634539</v>
+        <v>0.05696509602515163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -7377,19 +7377,19 @@
         <v>25753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16577</v>
+        <v>16324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40516</v>
+        <v>40346</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04056199771425321</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02610986553067543</v>
+        <v>0.02571019858295004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06381428023329663</v>
+        <v>0.06354671555219095</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>302305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290134</v>
+        <v>288978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309426</v>
+        <v>309785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9481253554057888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9099543716577869</v>
+        <v>0.9063277999258003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.970457848228135</v>
+        <v>0.9715835439367886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -7427,19 +7427,19 @@
         <v>306848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297347</v>
+        <v>298057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311013</v>
+        <v>311670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9708503187336555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9407892105136546</v>
+        <v>0.9430349039748483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9840290614115432</v>
+        <v>0.9861063808387878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>842</v>
@@ -7448,19 +7448,19 @@
         <v>609153</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>594390</v>
+        <v>594560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>618329</v>
+        <v>618582</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9594380022857468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9361857197667035</v>
+        <v>0.9364532844478092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9738901344693245</v>
+        <v>0.97428980141705</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>24312</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13944</v>
+        <v>13567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41029</v>
+        <v>38832</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04590107669125101</v>
+        <v>0.045901076691251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02632607272423103</v>
+        <v>0.02561470113586524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07746302822029545</v>
+        <v>0.07331478942041987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -7573,19 +7573,19 @@
         <v>28887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20310</v>
+        <v>21567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39547</v>
+        <v>38936</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05298264267223925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03725091003571563</v>
+        <v>0.03955681640573991</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07253489594044978</v>
+        <v>0.07141392107512383</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -7594,19 +7594,19 @@
         <v>53199</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39439</v>
+        <v>40023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69491</v>
+        <v>70498</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04949309619837397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03669142253860736</v>
+        <v>0.03723539055470054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06465027748326309</v>
+        <v>0.06558752556902042</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>505348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488631</v>
+        <v>490828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>515716</v>
+        <v>516093</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9540989233087489</v>
+        <v>0.954098923308749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9225369717797048</v>
+        <v>0.9266852105795802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.973673927275769</v>
+        <v>0.9743852988641348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>675</v>
@@ -7644,19 +7644,19 @@
         <v>516326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>505666</v>
+        <v>506277</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>524903</v>
+        <v>523646</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9470173573277607</v>
+        <v>0.9470173573277608</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.927465104059551</v>
+        <v>0.9285860789248763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9627490899642844</v>
+        <v>0.9604431835942601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1040</v>
@@ -7665,19 +7665,19 @@
         <v>1021674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005382</v>
+        <v>1004375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1035434</v>
+        <v>1034850</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9505069038016261</v>
+        <v>0.9505069038016259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9353497225167369</v>
+        <v>0.9344124744309795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9633085774613925</v>
+        <v>0.9627646094452994</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>9596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4534</v>
+        <v>4240</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18866</v>
+        <v>18131</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03041546110891297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01437171395413478</v>
+        <v>0.01343760582840661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05979739724757269</v>
+        <v>0.05746719996329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -7790,19 +7790,19 @@
         <v>8013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4344</v>
+        <v>4395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13816</v>
+        <v>13263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02248371419807118</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01218878865803505</v>
+        <v>0.01233250990496433</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03876816737003311</v>
+        <v>0.03721537324852926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -7811,19 +7811,19 @@
         <v>17609</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10842</v>
+        <v>9662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27126</v>
+        <v>27130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02620826998943366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01613654077391338</v>
+        <v>0.01438114846962086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04037337984564583</v>
+        <v>0.04037854206185642</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>305902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296632</v>
+        <v>297367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310964</v>
+        <v>311258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9695845388910872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.940202602752427</v>
+        <v>0.9425328000367101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9856282860458653</v>
+        <v>0.9865623941715937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>524</v>
@@ -7861,19 +7861,19 @@
         <v>348368</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>342565</v>
+        <v>343118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>352037</v>
+        <v>351986</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.977516285801929</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9612318326299668</v>
+        <v>0.9627846267514703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9878112113419649</v>
+        <v>0.9876674900950352</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>875</v>
@@ -7882,19 +7882,19 @@
         <v>654271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644754</v>
+        <v>644750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661038</v>
+        <v>662218</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9737917300105662</v>
+        <v>0.9737917300105664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9596266201543541</v>
+        <v>0.9596214579381435</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9838634592260868</v>
+        <v>0.9856188515303791</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>7617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2671</v>
+        <v>2298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18586</v>
+        <v>17876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02041204613712932</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007157134669121563</v>
+        <v>0.006159157055747428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04980963832965934</v>
+        <v>0.04790543907567379</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -8007,19 +8007,19 @@
         <v>12452</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7020</v>
+        <v>6357</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22169</v>
+        <v>21443</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02953389802331621</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01665058515535137</v>
+        <v>0.01507794066542074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05258007635594251</v>
+        <v>0.05085696237308399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -8028,19 +8028,19 @@
         <v>20069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12491</v>
+        <v>12021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33507</v>
+        <v>33393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02525120957392294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01571579766454132</v>
+        <v>0.01512526776335186</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04215867572117287</v>
+        <v>0.04201618529355137</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>365528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354559</v>
+        <v>355269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370474</v>
+        <v>370847</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9795879538628709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9501903616703408</v>
+        <v>0.9520945609243261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9928428653308784</v>
+        <v>0.9938408429442527</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>584</v>
@@ -8078,19 +8078,19 @@
         <v>409178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399461</v>
+        <v>400187</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414610</v>
+        <v>415273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9704661019766839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.947419923644057</v>
+        <v>0.9491430376269158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9833494148446484</v>
+        <v>0.9849220593345793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>871</v>
@@ -8099,19 +8099,19 @@
         <v>774706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761268</v>
+        <v>761382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>782284</v>
+        <v>782754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9747487904260771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9578413242788271</v>
+        <v>0.9579838147064476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9842842023354588</v>
+        <v>0.9848747322366481</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>6678</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3092</v>
+        <v>3044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13495</v>
+        <v>13572</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03246827126217527</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01503391045641949</v>
+        <v>0.01480278717450236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06561456671743715</v>
+        <v>0.06599174308734131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -8224,19 +8224,19 @@
         <v>8766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5325</v>
+        <v>5415</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14251</v>
+        <v>14071</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03857858704621062</v>
+        <v>0.03857858704621061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02343683097136942</v>
+        <v>0.02383413543045366</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06272048632843528</v>
+        <v>0.06192654270741763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -8245,19 +8245,19 @@
         <v>15443</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9944</v>
+        <v>10169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23829</v>
+        <v>24368</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03567552365878522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02297107084682338</v>
+        <v>0.02349091292362285</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0550484770622402</v>
+        <v>0.05629263285917854</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>198987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192170</v>
+        <v>192093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202573</v>
+        <v>202621</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9675317287378246</v>
+        <v>0.9675317287378247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9343854332825631</v>
+        <v>0.9340082569126581</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849660895435804</v>
+        <v>0.9851972128254975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>474</v>
@@ -8295,19 +8295,19 @@
         <v>218449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212964</v>
+        <v>213144</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221890</v>
+        <v>221800</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9614214129537895</v>
+        <v>0.9614214129537892</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9372795136715648</v>
+        <v>0.9380734572925823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9765631690286306</v>
+        <v>0.9761658645695462</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>745</v>
@@ -8316,19 +8316,19 @@
         <v>417436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409050</v>
+        <v>408511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422935</v>
+        <v>422710</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9643244763412148</v>
+        <v>0.9643244763412149</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9449515229377599</v>
+        <v>0.9437073671408216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9770289291531765</v>
+        <v>0.9765090870763773</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>6601</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2608</v>
+        <v>2779</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13505</v>
+        <v>13061</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02438465405860118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009632894269727996</v>
+        <v>0.0102642321432419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04988765347120892</v>
+        <v>0.04824676937613295</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -8441,19 +8441,19 @@
         <v>9930</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5567</v>
+        <v>5587</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17823</v>
+        <v>16984</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0376487719490196</v>
+        <v>0.03764877194901957</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02110778787150681</v>
+        <v>0.02118435446949311</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06757567849130458</v>
+        <v>0.06439620176765541</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -8462,19 +8462,19 @@
         <v>16531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9890</v>
+        <v>9831</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24708</v>
+        <v>25490</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03093038774807997</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01850526189574997</v>
+        <v>0.01839477974264478</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04623047528557942</v>
+        <v>0.04769238552506366</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>264106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257202</v>
+        <v>257646</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268099</v>
+        <v>267928</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9756153459413989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9501123465287912</v>
+        <v>0.9517532306238663</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9903671057302721</v>
+        <v>0.9897357678567579</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>447</v>
@@ -8512,19 +8512,19 @@
         <v>253820</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245927</v>
+        <v>246766</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258183</v>
+        <v>258163</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9623512280509806</v>
+        <v>0.9623512280509802</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9324243215086953</v>
+        <v>0.9356037982323446</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9788922121284932</v>
+        <v>0.9788156455305068</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>811</v>
@@ -8533,19 +8533,19 @@
         <v>517926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>509749</v>
+        <v>508967</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>524567</v>
+        <v>524626</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.96906961225192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9537695247144207</v>
+        <v>0.9523076144749363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.98149473810425</v>
+        <v>0.9816052202573553</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>22072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13640</v>
+        <v>13568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33824</v>
+        <v>34552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03066844288816371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01895310620479457</v>
+        <v>0.01885302108175237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04699751644693036</v>
+        <v>0.04801016832004856</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -8658,19 +8658,19 @@
         <v>56657</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43551</v>
+        <v>43702</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72974</v>
+        <v>72881</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07338405690133577</v>
+        <v>0.07338405690133576</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05640867616063241</v>
+        <v>0.05660443850188612</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09451876069961655</v>
+        <v>0.09439818783503938</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -8679,19 +8679,19 @@
         <v>78728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61966</v>
+        <v>62124</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98898</v>
+        <v>97918</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05277604516665296</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04153942961320777</v>
+        <v>0.04164554416912604</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06629682794643853</v>
+        <v>0.06564017239491636</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>697615</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>685863</v>
+        <v>685135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>706047</v>
+        <v>706119</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9693315571118364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9530024835530696</v>
+        <v>0.9519898316799514</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9810468937952055</v>
+        <v>0.9811469789182478</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>891</v>
@@ -8729,19 +8729,19 @@
         <v>715400</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>699083</v>
+        <v>699176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>728506</v>
+        <v>728355</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.926615943098664</v>
+        <v>0.9266159430986642</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9054812393003836</v>
+        <v>0.9056018121649605</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9435913238393674</v>
+        <v>0.9433955614981137</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1471</v>
@@ -8750,19 +8750,19 @@
         <v>1413016</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1392846</v>
+        <v>1393826</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1429778</v>
+        <v>1429620</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9472239548333471</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9337031720535615</v>
+        <v>0.9343598276050832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9584605703867922</v>
+        <v>0.9583544558308734</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>26130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17657</v>
+        <v>17488</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36859</v>
+        <v>38428</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03274157175928929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02212424160138077</v>
+        <v>0.02191307941983684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04618545658665479</v>
+        <v>0.04815097651909467</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -8875,19 +8875,19 @@
         <v>51004</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40489</v>
+        <v>39267</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64018</v>
+        <v>64956</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0614504463942132</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04878151327013532</v>
+        <v>0.04730922631776519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07712993668476757</v>
+        <v>0.07825916701651935</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -8896,19 +8896,19 @@
         <v>77134</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62707</v>
+        <v>63787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94625</v>
+        <v>94103</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04737756242693031</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03851613994573275</v>
+        <v>0.03917924516801198</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05812045488644974</v>
+        <v>0.05779989996998697</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>771942</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>761213</v>
+        <v>759644</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>780415</v>
+        <v>780584</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9672584282407107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9538145434133454</v>
+        <v>0.9518490234809054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9778757583986194</v>
+        <v>0.9780869205801631</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>994</v>
@@ -8946,19 +8946,19 @@
         <v>779002</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>765988</v>
+        <v>765050</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>789517</v>
+        <v>790739</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9385495536057868</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9228700633152325</v>
+        <v>0.921740832983481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9512184867298646</v>
+        <v>0.9526907736822349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1729</v>
@@ -8967,19 +8967,19 @@
         <v>1550944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1533453</v>
+        <v>1533975</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1565371</v>
+        <v>1564291</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9526224375730697</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.94187954511355</v>
+        <v>0.9422001000300131</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9614838600542672</v>
+        <v>0.9608207548319883</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>119545</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>98944</v>
+        <v>95451</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>147345</v>
+        <v>144058</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03385320093119155</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02801930357341013</v>
+        <v>0.02703027695473402</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04172560681908181</v>
+        <v>0.04079472344240208</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>245</v>
@@ -9092,19 +9092,19 @@
         <v>184921</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>160789</v>
+        <v>163042</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>212866</v>
+        <v>213967</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04954607024680572</v>
+        <v>0.04954607024680571</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04308013915328687</v>
+        <v>0.04368376964118601</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05703317707523096</v>
+        <v>0.05732824562701815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>349</v>
@@ -9113,19 +9113,19 @@
         <v>304467</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>274778</v>
+        <v>271502</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>343313</v>
+        <v>336351</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04191680066327556</v>
+        <v>0.04191680066327554</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03782953707286549</v>
+        <v>0.03737852078602323</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04726487524140766</v>
+        <v>0.04630644428156344</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3411735</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3383935</v>
+        <v>3387222</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3432336</v>
+        <v>3435829</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9661467990688085</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9582743931809182</v>
+        <v>0.9592052765575979</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9719806964265899</v>
+        <v>0.9729697230452659</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5114</v>
@@ -9163,19 +9163,19 @@
         <v>3547392</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3519447</v>
+        <v>3518346</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3571524</v>
+        <v>3569271</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9504539297531943</v>
+        <v>0.9504539297531942</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9429668229247692</v>
+        <v>0.9426717543729818</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9569198608467132</v>
+        <v>0.9563162303588141</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8384</v>
@@ -9184,19 +9184,19 @@
         <v>6959126</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6920280</v>
+        <v>6927242</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6988815</v>
+        <v>6992091</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9580831993367245</v>
+        <v>0.9580831993367244</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9527351247585925</v>
+        <v>0.9536935557184365</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9621704629271345</v>
+        <v>0.9626214792139767</v>
       </c>
     </row>
     <row r="30">
